--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.767</v>
+        <v>-2.114</v>
       </c>
       <c r="D4" t="n">
-        <v>-13692.31</v>
+        <v>-11226.32</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005</v>
+        <v>-0.021</v>
       </c>
       <c r="D5" t="n">
-        <v>-78.26000000000001</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.625</v>
       </c>
       <c r="C6" t="n">
-        <v>8.805</v>
+        <v>8.333</v>
       </c>
       <c r="D6" t="n">
-        <v>180.24</v>
+        <v>217.45</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.184</v>
       </c>
       <c r="C7" t="n">
-        <v>0.576</v>
+        <v>0.581</v>
       </c>
       <c r="D7" t="n">
-        <v>190.91</v>
+        <v>215.76</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>18.361</v>
+        <v>19.183</v>
       </c>
       <c r="D8" t="n">
-        <v>67.23999999999999</v>
+        <v>74.72</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.217</v>
       </c>
       <c r="C9" t="n">
-        <v>8.271000000000001</v>
+        <v>7.787</v>
       </c>
       <c r="D9" t="n">
-        <v>275.78</v>
+        <v>251.24</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>11.641</v>
       </c>
       <c r="C10" t="n">
-        <v>94.327</v>
+        <v>81.51600000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>422.79</v>
+        <v>600.25</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.708</v>
+        <v>0.698</v>
       </c>
       <c r="D11" t="n">
-        <v>1041.94</v>
+        <v>1451.11</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.589</v>
+        <v>-5.895</v>
       </c>
       <c r="D12" t="n">
-        <v>6550.72</v>
+        <v>-39400</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.412</v>
       </c>
       <c r="C13" t="n">
-        <v>9.712</v>
+        <v>9.029</v>
       </c>
       <c r="D13" t="n">
-        <v>128.63</v>
+        <v>164.62</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.480905994772911</v>
+        <v>4.003008780025301</v>
       </c>
       <c r="C4" t="n">
-        <v>3.97699598968029</v>
+        <v>4.006857128370376</v>
       </c>
       <c r="D4" t="n">
-        <v>14.25</v>
+        <v>0.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4345992013097641</v>
+        <v>1.056195288021794</v>
       </c>
       <c r="F4" t="n">
-        <v>1.566031791574901</v>
+        <v>1.184723667573488</v>
       </c>
       <c r="G4" t="n">
-        <v>260.34</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.219021854428742</v>
+        <v>2.381033463494361</v>
       </c>
       <c r="C6" t="n">
-        <v>3.955539472832621</v>
+        <v>2.553958001113257</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.25</v>
+        <v>7.26</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7911166790962602</v>
+        <v>0.6702195293820071</v>
       </c>
       <c r="F6" t="n">
-        <v>1.169825842823548</v>
+        <v>0.6608872580372483</v>
       </c>
       <c r="G6" t="n">
-        <v>47.87</v>
+        <v>-1.39</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.019</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.114</v>
+        <v>-1.539</v>
       </c>
       <c r="D4" t="n">
-        <v>-11226.32</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.035</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.021</v>
+        <v>-0.046</v>
       </c>
       <c r="D5" t="n">
-        <v>-160</v>
+        <v>-342.11</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.625</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>8.333</v>
+        <v>6.794</v>
       </c>
       <c r="D6" t="n">
-        <v>217.45</v>
+        <v>146.52</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.184</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.581</v>
+        <v>0.463</v>
       </c>
       <c r="D7" t="n">
-        <v>215.76</v>
+        <v>121.53</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>19.183</v>
+        <v>16.866</v>
       </c>
       <c r="D8" t="n">
-        <v>74.72</v>
+        <v>89.76000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.217</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>7.787</v>
+        <v>6.207</v>
       </c>
       <c r="D9" t="n">
-        <v>251.24</v>
+        <v>134.14</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.641</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>81.51600000000001</v>
+        <v>58.525</v>
       </c>
       <c r="D10" t="n">
-        <v>600.25</v>
+        <v>394.42</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.698</v>
+        <v>0.41</v>
       </c>
       <c r="D11" t="n">
-        <v>1451.11</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.895</v>
+        <v>-3.95</v>
       </c>
       <c r="D12" t="n">
-        <v>-39400</v>
+        <v>394900</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.412</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>9.029</v>
+        <v>7.65</v>
       </c>
       <c r="D13" t="n">
-        <v>164.62</v>
+        <v>122.32</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.003008780025301</v>
+        <v>2.985174105280922</v>
       </c>
       <c r="C4" t="n">
-        <v>4.006857128370376</v>
+        <v>2.708123428480966</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>-9.279999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1.056195288021794</v>
+        <v>0.4215616010492307</v>
       </c>
       <c r="F4" t="n">
-        <v>1.184723667573488</v>
+        <v>0.4897084620786971</v>
       </c>
       <c r="G4" t="n">
-        <v>12.17</v>
+        <v>16.17</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.381033463494361</v>
+        <v>3.463052925301934</v>
       </c>
       <c r="C6" t="n">
-        <v>2.553958001113257</v>
+        <v>3.745572149361531</v>
       </c>
       <c r="D6" t="n">
-        <v>7.26</v>
+        <v>8.16</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6702195293820071</v>
+        <v>0.3887484098023127</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6608872580372483</v>
+        <v>0.8535330663807728</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.39</v>
+        <v>119.56</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-qat_low-rank_quant-dynamic/0_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
